--- a/web base/css/中英一览表.xlsx
+++ b/web base/css/中英一览表.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cat\web\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\web\web base\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7D02E-2C32-4F56-8FB6-FF0AA25C7471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B7A085-E928-453D-84BE-341E4C891300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="15" windowWidth="14385" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="HTML" sheetId="3" r:id="rId2"/>
     <sheet name="CSS" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6462,7 +6470,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -6512,7 +6520,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -6830,8 +6838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7007,6 +7015,13 @@
       <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="K9">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="L9">
+        <f>6*K9</f>
+        <v>22.000001999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7017,6 +7032,14 @@
       </c>
       <c r="D10" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="I10">
+        <f>102-100.33</f>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="J10">
+        <f>100-I10</f>
+        <v>98.33</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9874,7 +9897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -10755,19 +10778,19 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B46">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B27">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10778,7 +10801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
@@ -11931,13 +11954,13 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:B1048576 B92:B96 B8 B12 B18:B26 B85 B28:B30 B103:B109 B1:B3 B64:B72 B99 B111:B140">
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:B1048576 B103:B109 B99 B111:B140 B92:B96 B85:B87 B77:B81 B1:B72">
-    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
